--- a/medicine/Psychotrope/Cobra_Beer/Cobra_Beer.xlsx
+++ b/medicine/Psychotrope/Cobra_Beer/Cobra_Beer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Cobra Beer est une marque de bière indo-britannique fondée en 1989 par Karan Bilimoria.
@@ -512,7 +524,9 @@
           <t>Brasseries</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La bière Cobra est originellement brassée à Bangalore, en Inde, puis envoyée au Royaume-Uni. Elle appartient depuis 2009 au groupe Molson Coors Brewing Company.
 Depuis 2014, Cobra Beer est brassée à Burton upon Trent, U.K., Rodenbach, Belgique et Patna en Inde.
@@ -544,7 +558,9 @@
           <t>Communication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En 2005, la marque créé une compétition de courts métrages : la CobraVision Short Film Competition.
 En 2009, la marque lance une application iPhone appelée Ibanter (banter peut être traduit par blague, ou plus littéralement par badinage). Il s'agit d'une application compilant des vidéos, dont l'objectif de la caméra est concentré sur la bouche d'un comédien racontant une blague. L'idée consiste à placer le téléphone devant sa propre bouche.
@@ -576,9 +592,11 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les bières de la marque Cobra sont régulièrement récompensées par l'institut Monde Selection (55 Labels de qualité Or depuis 2001)[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les bières de la marque Cobra sont régulièrement récompensées par l'institut Monde Selection (55 Labels de qualité Or depuis 2001).
 </t>
         </is>
       </c>
